--- a/8.xlsx
+++ b/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/K1/NAT/1_NAT_infinity/__GITHUB/havo_opgaven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECC618-D525-8A41-A219-2224C975ADA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8ADC2C-965D-EB41-9B5D-645287CD8EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{667838F5-5B8A-CF4E-99B1-4026E6BC52D9}"/>
   </bookViews>
@@ -883,7 +883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -912,13 +912,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -946,13 +939,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,7 +1263,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,31 +1597,31 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>75</v>
       </c>
     </row>
